--- a/etc/map.xlsx
+++ b/etc/map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>●</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>Classic E</t>
+  </si>
+  <si>
+    <t>9*9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X50" sqref="X50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,8 +786,14 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="N1" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="22" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1124,7 +1138,9 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1138,7 +1154,9 @@
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -1474,7 +1492,9 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1488,7 +1508,9 @@
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
@@ -1838,7 +1860,9 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1852,7 +1876,9 @@
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
+      <c r="Q39" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
@@ -2231,7 +2257,9 @@
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -2245,7 +2273,9 @@
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
+      <c r="Q52" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
